--- a/biology/Médecine/Fargas_(dessinateur)/Fargas_(dessinateur).xlsx
+++ b/biology/Médecine/Fargas_(dessinateur)/Fargas_(dessinateur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fargas, de son vrai nom Jean-Jacques Emungania, né le 15 juin 1962 dans le Kasaï oriental (Zaïre)[1], est un auteur de bande dessinée zaïrois-gabonais. Il exerce le métier de médecin généraliste à l'hôpital général de Libreville[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fargas, de son vrai nom Jean-Jacques Emungania, né le 15 juin 1962 dans le Kasaï oriental (Zaïre), est un auteur de bande dessinée zaïrois-gabonais. Il exerce le métier de médecin généraliste à l'hôpital général de Libreville.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zaïrois de naissance (neveu de Patrice Emery Lumumba), il arrive en Belgique en 1969 puis s'installe à Libreville en 1983 pour étudier la médecine à l’université Omar Bongo. Durant son enfance en Belgique, il a l'occasion de rencontrer les dessinateurs Tibet et Hermann qu'il considère comme ses parrains, et qui ont contribué à influencer le trait de cet autodidacte[3]. Parallèlement à ses études, il livre des planches à la presse BD locale[4]. Devenu médecin généraliste, il continue à réaliser des albums, à un rythme lent[4]. De 2000 à 2005, Fargas a également été chargé de concevoir les tenues de l'armée gabonaise[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zaïrois de naissance (neveu de Patrice Emery Lumumba), il arrive en Belgique en 1969 puis s'installe à Libreville en 1983 pour étudier la médecine à l’université Omar Bongo. Durant son enfance en Belgique, il a l'occasion de rencontrer les dessinateurs Tibet et Hermann qu'il considère comme ses parrains, et qui ont contribué à influencer le trait de cet autodidacte. Parallèlement à ses études, il livre des planches à la presse BD locale. Devenu médecin généraliste, il continue à réaliser des albums, à un rythme lent. De 2000 à 2005, Fargas a également été chargé de concevoir les tenues de l'armée gabonaise.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Série : Yannick Dombi pour le Programme national de lutte contre le sida (PNLS)
 Yannick Dombi, ou le choix de vivre, tome 1, Libreville : Multipress, 1991.
